--- a/data/trans_bre/P1426-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1426-Provincia-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.599456360075461</v>
+        <v>-1.632732576033143</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.497477920421527</v>
+        <v>-2.246006684014567</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.75593158304516</v>
+        <v>-1.888204693327568</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.7359075413968806</v>
+        <v>-0.6774938644362319</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6767127718621756</v>
+        <v>-0.657320659884903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6291543188130544</v>
+        <v>-0.6553338064048794</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.112271769973956</v>
+        <v>3.387688809416459</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.065226609953138</v>
+        <v>3.13706945581811</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.80511636808359</v>
+        <v>1.502839009800525</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4.291984480023428</v>
+        <v>5.184003810749148</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.490079502944582</v>
+        <v>3.110846483038179</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.726922397278456</v>
+        <v>1.632661124274349</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4441280434334084</v>
+        <v>0.4273100905477554</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.4629988392291278</v>
+        <v>-0.3353558288071443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.120141771547467</v>
+        <v>-2.259991726343313</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2248880158238385</v>
+        <v>-0.4977285738708992</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7819415622986501</v>
+        <v>-0.7639201438793493</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6453063747811477</v>
+        <v>-0.6237415951104585</v>
       </c>
     </row>
     <row r="9">
@@ -746,20 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.187158209621749</v>
+        <v>4.137136984233755</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.782890963787919</v>
+        <v>1.812856542760535</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.222894249302443</v>
+        <v>1.026363830188074</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
-      <c r="G9" s="6" t="n">
-        <v>10.32536189502298</v>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9977201176373295</v>
+        <v>0.8512573647112363</v>
       </c>
     </row>
     <row r="10">
@@ -800,20 +802,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.462494002969393</v>
+        <v>-2.36343765274044</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7617580180752374</v>
+        <v>-0.6994431065135621</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.884873890912746</v>
+        <v>-7.183921731328565</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.8586850740708984</v>
+        <v>-0.8509595976280192</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.6016589544798115</v>
+        <v>-0.626167795195909</v>
       </c>
     </row>
     <row r="12">
@@ -824,20 +826,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.838123522061044</v>
+        <v>1.572142962343101</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.964263064781114</v>
+        <v>2.019858900322563</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.3794613109335332</v>
+        <v>-0.2633806449257415</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>4.047662932121257</v>
+        <v>3.534271049390356</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>-0.03209820806257255</v>
+        <v>-0.0333949698577003</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +860,7 @@
         <v>-1.138317266604015</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.183263613402816</v>
+        <v>1.183263613402817</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5401229697448747</v>
@@ -867,7 +869,7 @@
         <v>-0.5903694214974945</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.415251338368766</v>
+        <v>0.4152513383687662</v>
       </c>
     </row>
     <row r="14">
@@ -878,22 +880,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.9584753380398027</v>
+        <v>-0.9884428061463028</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.034792524633157</v>
+        <v>-2.934387631970627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.8997842518475077</v>
+        <v>-0.918492686348928</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8364073193793521</v>
+        <v>-0.8310570139201197</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2597622262154307</v>
+        <v>-0.244774346232585</v>
       </c>
     </row>
     <row r="15">
@@ -904,22 +906,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.930851577834524</v>
+        <v>1.817530725565739</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6378220348537638</v>
+        <v>0.8185502022128019</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.233001037338597</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>9.886464125394028</v>
-      </c>
+        <v>3.32933381212822</v>
+      </c>
+      <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>1.495502743641205</v>
+        <v>2.137802513264882</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.905346497323552</v>
+        <v>1.878429077800952</v>
       </c>
     </row>
     <row r="16">
@@ -960,22 +960,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.820281919573274</v>
+        <v>-1.910122747263799</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01405048069143329</v>
+        <v>-0.1761258216756817</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.695516460871051</v>
+        <v>-2.995405276569154</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.405794656880539</v>
+        <v>-0.4331477321166677</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8612849223212724</v>
+        <v>-0.4886248009103402</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3282286256342836</v>
+        <v>-0.3236950173816189</v>
       </c>
     </row>
     <row r="18">
@@ -986,20 +986,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.603484346368556</v>
+        <v>6.170191894481096</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.29929592023008</v>
+        <v>6.121163350892557</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.048854531030722</v>
+        <v>4.346830715939136</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3.582016177596567</v>
+        <v>3.424770710861277</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>0.7865813245442319</v>
+        <v>0.8470656469844851</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1020,7 @@
         <v>1.054735329560654</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-1.341532173646256</v>
+        <v>-1.341532173646254</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.4923074844159447</v>
@@ -1029,7 +1029,7 @@
         <v>0.5504331706160999</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.09910259909695485</v>
+        <v>-0.09910259909695467</v>
       </c>
     </row>
     <row r="20">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.101672945287469</v>
+        <v>-4.423459364706103</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.641916191993835</v>
+        <v>-1.66938278740867</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-5.335517812693221</v>
+        <v>-5.252674473087458</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8970623021254912</v>
+        <v>-0.8983491112997203</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6269016351995298</v>
+        <v>-0.6043755049915628</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3403389659399643</v>
+        <v>-0.3381101418696872</v>
       </c>
     </row>
     <row r="21">
@@ -1066,22 +1066,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8855585307900593</v>
+        <v>0.8140969274709031</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.532050029368255</v>
+        <v>3.731576343698266</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.697227743653086</v>
+        <v>2.737378444980213</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7702960532200339</v>
+        <v>0.7714931070236568</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.054730712892829</v>
+        <v>4.351852352324727</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2505144691882255</v>
+        <v>0.2569589608931976</v>
       </c>
     </row>
     <row r="22">
@@ -1102,7 +1102,7 @@
         <v>2.259805591781633</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.141697410680604</v>
+        <v>1.141697410680601</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>-0.3690760898871908</v>
@@ -1111,7 +1111,7 @@
         <v>1.102207348094301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2064700658257464</v>
+        <v>0.2064700658257459</v>
       </c>
     </row>
     <row r="23">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.494165442461976</v>
+        <v>-2.693406478510948</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3872762032600676</v>
+        <v>0.372670091271706</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.179871525247193</v>
+        <v>-1.249999220258264</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.7400540483409801</v>
+        <v>-0.7650002203613131</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.09895323877982559</v>
+        <v>0.04542477023980191</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1747118647115654</v>
+        <v>-0.1715129610425722</v>
       </c>
     </row>
     <row r="24">
@@ -1148,22 +1148,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5838874809417549</v>
+        <v>0.5913751965913707</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.257460188500394</v>
+        <v>4.280601312417044</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.558974972274993</v>
+        <v>3.409765707626288</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.4380415830388155</v>
+        <v>0.4467113689923081</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.082214439995584</v>
+        <v>3.074797834866912</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8017888283623096</v>
+        <v>0.7924755472625571</v>
       </c>
     </row>
     <row r="25">
@@ -1184,7 +1184,7 @@
         <v>-0.5288101922851488</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.4248426405143141</v>
+        <v>0.4248426405143155</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.711560030628907</v>
@@ -1193,7 +1193,7 @@
         <v>-0.4463436767670519</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2188662199764252</v>
+        <v>0.218866219976426</v>
       </c>
     </row>
     <row r="26">
@@ -1204,22 +1204,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.44569817396182</v>
+        <v>-0.4445554228963987</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.454429763931861</v>
+        <v>-1.369102543101627</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.7315140180019296</v>
+        <v>-0.7469460659096647</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6352835025280928</v>
+        <v>-0.6740472710107198</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8458913998560016</v>
+        <v>-0.8270233230557955</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2971217565579825</v>
+        <v>-0.2974768979990221</v>
       </c>
     </row>
     <row r="27">
@@ -1230,22 +1230,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.236763900078086</v>
+        <v>1.245598720278589</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4603517929489011</v>
+        <v>0.4625432287260696</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.698779341706565</v>
+        <v>1.62699073126828</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7.129371737584916</v>
+        <v>5.579296873631029</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8433299318324986</v>
+        <v>0.8790022904502175</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.432373712126326</v>
+        <v>1.282616687380267</v>
       </c>
     </row>
     <row r="28">
@@ -1266,7 +1266,7 @@
         <v>0.5913039448943092</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.02923173135544743</v>
+        <v>0.02923173135544674</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>0.2029519271681407</v>
@@ -1275,7 +1275,7 @@
         <v>0.4093003746120534</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006287277413153391</v>
+        <v>0.006287277413153242</v>
       </c>
     </row>
     <row r="29">
@@ -1286,22 +1286,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2552191418438832</v>
+        <v>-0.36146010245783</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.01766105520426551</v>
+        <v>-0.08824066125484391</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8042548432500752</v>
+        <v>-0.8099645707094846</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.1453037838261875</v>
+        <v>-0.1905037851916103</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.02470182483646176</v>
+        <v>-0.05170358369474872</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1578330906310855</v>
+        <v>-0.1550836400818065</v>
       </c>
     </row>
     <row r="30">
@@ -1312,22 +1312,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.015840719175322</v>
+        <v>0.9167063309050063</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.257404717501849</v>
+        <v>1.277838797701749</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7982587593383378</v>
+        <v>0.8879475864426741</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.8417976437351344</v>
+        <v>0.7508223740118306</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.074444755140077</v>
+        <v>1.132812414960971</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1908957292059421</v>
+        <v>0.2123404444976019</v>
       </c>
     </row>
     <row r="31">
